--- a/GA_bNa_bCa_NaK/Best_ind3.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind3.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2502940095280417</v>
+        <v>1.327450054042723</v>
       </c>
       <c r="B2" t="n">
-        <v>0.785268146069517</v>
+        <v>3.427257135673248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1354013994591454</v>
+        <v>0.3195277807484191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4180218742790801</v>
+        <v>1.248306693834764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7672230265466201</v>
+        <v>2.025798573393236</v>
       </c>
       <c r="F2" t="n">
-        <v>5.696811016904351</v>
+        <v>5.563137065509901</v>
       </c>
       <c r="G2" t="n">
-        <v>6.693156824697719</v>
+        <v>9.808549942956468</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3129671757037768</v>
+        <v>0.159040176991391</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1289282320830689</v>
+        <v>0.3879373295498386</v>
       </c>
       <c r="J2" t="n">
-        <v>4.434276779540819</v>
+        <v>1.192154845925078</v>
       </c>
       <c r="K2" t="n">
-        <v>1.63932639352448</v>
+        <v>0.3253182693162368</v>
       </c>
     </row>
   </sheetData>
